--- a/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>GRIL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="E9" s="3">
         <v>900</v>
       </c>
       <c r="F9" s="3">
+        <v>900</v>
+      </c>
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -882,26 +901,29 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -918,19 +940,22 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,129 +1042,142 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-500</v>
+        <v>-20800</v>
       </c>
       <c r="E20" s="3">
         <v>-500</v>
       </c>
       <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-1000</v>
       </c>
       <c r="F21" s="3">
         <v>-1000</v>
       </c>
       <c r="G21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
       </c>
       <c r="F22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1500</v>
       </c>
       <c r="F23" s="3">
         <v>-1500</v>
       </c>
       <c r="G23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1153,10 +1198,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1500</v>
       </c>
       <c r="F26" s="3">
         <v>-1500</v>
       </c>
       <c r="G26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3200</v>
       </c>
       <c r="K26" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1500</v>
       </c>
       <c r="F27" s="3">
         <v>-1500</v>
       </c>
       <c r="G27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-3200</v>
       </c>
       <c r="K27" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>500</v>
+        <v>20800</v>
       </c>
       <c r="E32" s="3">
         <v>500</v>
       </c>
       <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1500</v>
       </c>
       <c r="F33" s="3">
         <v>-1500</v>
       </c>
       <c r="G33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-3200</v>
       </c>
       <c r="K33" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1500</v>
       </c>
       <c r="F35" s="3">
         <v>-1500</v>
       </c>
       <c r="G35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-3200</v>
       </c>
       <c r="K35" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1601,13 +1693,13 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1633,7 +1728,7 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -1642,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -1650,8 +1745,11 @@
       <c r="K44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,37 +1777,43 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,27 +1839,30 @@
         <v>100</v>
       </c>
       <c r="K47" s="3">
+        <v>100</v>
+      </c>
+      <c r="L47" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
@@ -1766,13 +1873,16 @@
       <c r="K48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="E49" s="3">
         <v>3100</v>
@@ -1790,13 +1900,16 @@
         <v>3100</v>
       </c>
       <c r="J49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K49" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E54" s="3">
         <v>7000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>4200</v>
       </c>
       <c r="K54" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,52 +2095,56 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>4200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
@@ -2022,10 +2155,13 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2036,88 +2172,97 @@
         <v>800</v>
       </c>
       <c r="F59" s="3">
+        <v>800</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2000</v>
       </c>
       <c r="J59" s="3">
         <v>2000</v>
       </c>
       <c r="K59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>4700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
@@ -2126,7 +2271,7 @@
         <v>1000</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-27400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1500</v>
       </c>
       <c r="F81" s="3">
         <v>-1500</v>
       </c>
       <c r="G81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-3200</v>
       </c>
       <c r="K81" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2653,19 +2851,22 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,26 +3070,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -2878,10 +3098,13 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2947,17 +3176,17 @@
         <v>-600</v>
       </c>
       <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -2965,10 +3194,13 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>GRIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,181 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1200</v>
       </c>
       <c r="H8" s="3">
         <v>1400</v>
       </c>
       <c r="I8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,40 +924,52 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -943,7 +989,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,147 +1109,173 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-20800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-21600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-23000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1201,10 +1293,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-23000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-23000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>20800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-23000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-23000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1792,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>400</v>
       </c>
       <c r="I41" s="3">
         <v>800</v>
       </c>
       <c r="J41" s="3">
+        <v>400</v>
+      </c>
+      <c r="K41" s="3">
+        <v>800</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1864,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1696,16 +1882,16 @@
         <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1731,25 +1923,31 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1757,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -1780,40 +1978,52 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1842,10 +2052,16 @@
         <v>100</v>
       </c>
       <c r="L47" s="3">
+        <v>100</v>
+      </c>
+      <c r="M47" s="3">
+        <v>100</v>
+      </c>
+      <c r="N47" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1853,22 +2069,22 @@
         <v>1600</v>
       </c>
       <c r="E48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
@@ -1876,8 +2092,14 @@
       <c r="L48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>500</v>
+      </c>
+      <c r="N48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1885,10 +2107,10 @@
         <v>3700</v>
       </c>
       <c r="E49" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="F49" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="G49" s="3">
         <v>3100</v>
@@ -1903,13 +2125,19 @@
         <v>3100</v>
       </c>
       <c r="K49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M49" s="3">
         <v>3200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,16 +2206,22 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2282,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F54" s="3">
         <v>6300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,61 +2356,69 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
@@ -2158,15 +2426,21 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
@@ -2175,89 +2449,107 @@
         <v>800</v>
       </c>
       <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>800</v>
+      </c>
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2265,19 +2557,19 @@
         <v>1200</v>
       </c>
       <c r="E62" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F62" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G62" s="3">
         <v>1000</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F66" s="3">
         <v>6000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-53100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-29800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-27400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-25900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-23800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-23300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-22200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-20200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-6500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-23000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2854,7 +3252,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3453,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3511,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3621,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3827,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>4100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3903,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2600</v>
-      </c>
-      <c r="G102" s="3">
-        <v>500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-400</v>
       </c>
       <c r="I102" s="3">
         <v>500</v>
       </c>
       <c r="J102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K102" s="3">
+        <v>500</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,153 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F9" s="3">
         <v>1500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>900</v>
       </c>
       <c r="H9" s="3">
         <v>900</v>
       </c>
       <c r="I9" s="3">
+        <v>900</v>
+      </c>
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,37 +819,40 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F10" s="3">
         <v>-100</v>
       </c>
       <c r="G10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,46 +947,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,7 +1000,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -995,19 +1018,22 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="E17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F17" s="3">
         <v>6800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1500</v>
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-20800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-500</v>
       </c>
       <c r="H20" s="3">
         <v>-500</v>
       </c>
       <c r="I20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1400</v>
+        <v>-600</v>
       </c>
       <c r="E21" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1000</v>
       </c>
       <c r="I21" s="3">
         <v>-1000</v>
       </c>
       <c r="J21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1199,86 +1239,92 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>1300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
       </c>
       <c r="I22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1500</v>
+        <v>-700</v>
       </c>
       <c r="E23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1500</v>
       </c>
       <c r="I23" s="3">
         <v>-1500</v>
       </c>
       <c r="J23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1299,10 +1345,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1500</v>
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1500</v>
       </c>
       <c r="I26" s="3">
         <v>-1500</v>
       </c>
       <c r="J26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-3200</v>
       </c>
       <c r="N26" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1500</v>
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1500</v>
       </c>
       <c r="I27" s="3">
         <v>-1500</v>
       </c>
       <c r="J27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-3200</v>
       </c>
       <c r="N27" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>20800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>500</v>
       </c>
       <c r="H32" s="3">
         <v>500</v>
       </c>
       <c r="I32" s="3">
+        <v>500</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1500</v>
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1500</v>
       </c>
       <c r="I33" s="3">
         <v>-1500</v>
       </c>
       <c r="J33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-3200</v>
       </c>
       <c r="N33" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1500</v>
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1500</v>
       </c>
       <c r="I35" s="3">
         <v>-1500</v>
       </c>
       <c r="J35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-3200</v>
       </c>
       <c r="N35" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,13 +1960,16 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -1888,13 +1981,13 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1929,7 +2025,7 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -1938,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1955,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1984,46 +2083,52 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,15 +2163,18 @@
         <v>100</v>
       </c>
       <c r="N47" s="3">
+        <v>100</v>
+      </c>
+      <c r="O47" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="E48" s="3">
         <v>1600</v>
@@ -2075,19 +2183,19 @@
         <v>1600</v>
       </c>
       <c r="G48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>500</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
@@ -2098,13 +2206,16 @@
       <c r="N48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E49" s="3">
         <v>3700</v>
@@ -2113,7 +2224,7 @@
         <v>3700</v>
       </c>
       <c r="G49" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="H49" s="3">
         <v>3100</v>
@@ -2131,13 +2242,16 @@
         <v>3100</v>
       </c>
       <c r="M49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="N49" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2224,7 +2344,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E54" s="3">
         <v>8900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>4200</v>
       </c>
       <c r="N54" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,70 +2488,74 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
@@ -2432,10 +2566,13 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2443,7 +2580,7 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>800</v>
@@ -2455,106 +2592,115 @@
         <v>800</v>
       </c>
       <c r="I59" s="3">
+        <v>800</v>
+      </c>
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2000</v>
       </c>
       <c r="M59" s="3">
         <v>2000</v>
       </c>
       <c r="N59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E62" s="3">
         <v>1200</v>
@@ -2563,7 +2709,7 @@
         <v>1200</v>
       </c>
       <c r="G62" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H62" s="3">
         <v>1000</v>
@@ -2572,7 +2718,7 @@
         <v>1000</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,8 +2855,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2709,37 +2867,40 @@
         <v>5100</v>
       </c>
       <c r="E66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-58600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-53100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1500</v>
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1500</v>
       </c>
       <c r="I81" s="3">
         <v>-1500</v>
       </c>
       <c r="J81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-3200</v>
       </c>
       <c r="N81" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3240,7 +3439,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -3258,19 +3457,22 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,35 +3733,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -3549,10 +3770,13 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,35 +3854,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-600</v>
       </c>
       <c r="H94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -3663,10 +3893,13 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K100" s="3">
+        <v>700</v>
+      </c>
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
-        <v>5800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>700</v>
-      </c>
-      <c r="K100" s="3">
-        <v>900</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-500</v>
+        <v>2900</v>
       </c>
       <c r="E102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>GRIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,219 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1200</v>
       </c>
       <c r="K8" s="3">
         <v>1400</v>
       </c>
       <c r="L8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E10" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,64 +983,76 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
-        <v>100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
-      </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
@@ -1021,7 +1066,7 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-6900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1210,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-20800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-5300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-21600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1242,75 +1321,87 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-23000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1320,11 +1411,11 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1348,10 +1439,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-7000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-23000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-7000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-23000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>20800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-7000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-23000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-7000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-23000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F41" s="3">
         <v>6100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>400</v>
       </c>
       <c r="L41" s="3">
         <v>800</v>
       </c>
       <c r="M41" s="3">
+        <v>400</v>
+      </c>
+      <c r="N41" s="3">
+        <v>800</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,19 +2142,25 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -1984,16 +2169,16 @@
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
@@ -2004,8 +2189,14 @@
       <c r="O43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2028,25 +2219,31 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2057,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2086,57 +2283,69 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F46" s="3">
         <v>6500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>100</v>
@@ -2166,42 +2375,48 @@
         <v>100</v>
       </c>
       <c r="O47" s="3">
+        <v>100</v>
+      </c>
+      <c r="P47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1600</v>
       </c>
       <c r="G48" s="3">
         <v>1600</v>
       </c>
       <c r="H48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>500</v>
       </c>
       <c r="N48" s="3">
         <v>500</v>
@@ -2209,28 +2424,34 @@
       <c r="O48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E49" s="3">
         <v>3500</v>
       </c>
-      <c r="E49" s="3">
-        <v>3700</v>
-      </c>
       <c r="F49" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="G49" s="3">
         <v>3700</v>
       </c>
       <c r="H49" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="I49" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="J49" s="3">
         <v>3100</v>
@@ -2245,13 +2466,19 @@
         <v>3100</v>
       </c>
       <c r="N49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P49" s="3">
         <v>3200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2347,10 +2586,10 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F54" s="3">
         <v>12100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,79 +2748,87 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
@@ -2569,24 +2836,30 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
       </c>
       <c r="F59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
@@ -2595,107 +2868,125 @@
         <v>800</v>
       </c>
       <c r="J59" s="3">
+        <v>800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>800</v>
+      </c>
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>600</v>
+      </c>
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2703,28 +2994,28 @@
         <v>1000</v>
       </c>
       <c r="E62" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F62" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G62" s="3">
         <v>1200</v>
       </c>
       <c r="H62" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="I62" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J62" s="3">
         <v>1000</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>13500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>12300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-60800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-60100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-58600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-53100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-29800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-27400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-25900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-23800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-23300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-22200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-20200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F76" s="3">
         <v>7100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-6500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-7000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-23000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,23 +3825,25 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
-        <v>100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
@@ -3460,7 +3857,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +4103,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3685,40 +4118,46 @@
         <v>-1600</v>
       </c>
       <c r="E89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G89" s="3">
         <v>-3800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
         <v>4900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>6700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>5800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2600</v>
-      </c>
-      <c r="J102" s="3">
-        <v>500</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-400</v>
       </c>
       <c r="L102" s="3">
         <v>500</v>
       </c>
       <c r="M102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N102" s="3">
+        <v>500</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>GRIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>900</v>
       </c>
       <c r="K9" s="3">
         <v>900</v>
       </c>
       <c r="L9" s="3">
+        <v>900</v>
+      </c>
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-500</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-100</v>
       </c>
       <c r="I10" s="3">
         <v>-100</v>
       </c>
       <c r="J10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,73 +1006,79 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
@@ -1072,19 +1095,22 @@
         <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,19 +1245,20 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1233,86 +1267,92 @@
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-20800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-500</v>
       </c>
       <c r="K20" s="3">
         <v>-500</v>
       </c>
       <c r="L20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-21600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1000</v>
       </c>
       <c r="L21" s="3">
         <v>-1000</v>
       </c>
       <c r="M21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1327,81 +1367,87 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>1300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
       </c>
       <c r="K22" s="3">
         <v>500</v>
       </c>
       <c r="L22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1500</v>
       </c>
       <c r="L23" s="3">
         <v>-1500</v>
       </c>
       <c r="M23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1445,10 +1491,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1500</v>
       </c>
       <c r="L26" s="3">
         <v>-1500</v>
       </c>
       <c r="M26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-3200</v>
       </c>
       <c r="Q26" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1500</v>
       </c>
       <c r="L27" s="3">
         <v>-1500</v>
       </c>
       <c r="M27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-3200</v>
       </c>
       <c r="Q27" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,19 +1843,22 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -1797,81 +1867,87 @@
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>20800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>500</v>
       </c>
       <c r="K32" s="3">
         <v>500</v>
       </c>
       <c r="L32" s="3">
+        <v>500</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1500</v>
       </c>
       <c r="L33" s="3">
         <v>-1500</v>
       </c>
       <c r="M33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-3200</v>
       </c>
       <c r="Q33" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1500</v>
       </c>
       <c r="L35" s="3">
         <v>-1500</v>
       </c>
       <c r="M35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-3200</v>
       </c>
       <c r="Q35" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,22 +2238,25 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -2175,13 +2268,13 @@
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
@@ -2195,13 +2288,16 @@
       <c r="Q43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -2225,7 +2321,7 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2234,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -2242,13 +2338,16 @@
       <c r="Q44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2260,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2289,55 +2388,61 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
-      </c>
-      <c r="P46" s="3">
-        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2348,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>100</v>
@@ -2381,24 +2486,27 @@
         <v>100</v>
       </c>
       <c r="Q47" s="3">
+        <v>100</v>
+      </c>
+      <c r="R47" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1600</v>
       </c>
       <c r="H48" s="3">
         <v>1600</v>
@@ -2407,19 +2515,19 @@
         <v>1600</v>
       </c>
       <c r="J48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>500</v>
       </c>
       <c r="O48" s="3">
         <v>500</v>
@@ -2430,22 +2538,25 @@
       <c r="Q48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E49" s="3">
         <v>4500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3500</v>
       </c>
       <c r="F49" s="3">
         <v>3500</v>
       </c>
       <c r="G49" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H49" s="3">
         <v>3700</v>
@@ -2454,7 +2565,7 @@
         <v>3700</v>
       </c>
       <c r="J49" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="K49" s="3">
         <v>3100</v>
@@ -2472,13 +2583,16 @@
         <v>3100</v>
       </c>
       <c r="P49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="Q49" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,13 +2688,16 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -2592,7 +2712,7 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>4200</v>
       </c>
       <c r="Q54" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,88 +2880,92 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
@@ -2842,18 +2976,21 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
@@ -2862,7 +2999,7 @@
         <v>700</v>
       </c>
       <c r="H59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
@@ -2874,124 +3011,133 @@
         <v>800</v>
       </c>
       <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2000</v>
       </c>
       <c r="P59" s="3">
         <v>2000</v>
       </c>
       <c r="Q59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>600</v>
       </c>
       <c r="F61" s="3">
         <v>600</v>
       </c>
       <c r="G61" s="3">
+        <v>600</v>
+      </c>
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
@@ -3000,7 +3146,7 @@
         <v>1000</v>
       </c>
       <c r="G62" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H62" s="3">
         <v>1200</v>
@@ -3009,7 +3155,7 @@
         <v>1200</v>
       </c>
       <c r="J62" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K62" s="3">
         <v>1000</v>
@@ -3018,7 +3164,7 @@
         <v>1000</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>5100</v>
       </c>
       <c r="G66" s="3">
         <v>5100</v>
       </c>
       <c r="H66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-66900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-60800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-58600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-53100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E76" s="3">
         <v>4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1500</v>
       </c>
       <c r="L81" s="3">
         <v>-1500</v>
       </c>
       <c r="M81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-3200</v>
       </c>
       <c r="Q81" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,26 +4025,27 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
-        <v>100</v>
-      </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
@@ -3863,19 +4062,22 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,44 +4395,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4220,10 +4441,13 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,44 +4543,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-600</v>
       </c>
       <c r="K94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4361,10 +4591,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>GRIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,258 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1200</v>
       </c>
       <c r="N8" s="3">
         <v>1400</v>
       </c>
       <c r="O8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-500</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +935,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +987,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,82 +1043,94 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
-        <v>100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
-      </c>
       <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>100</v>
-      </c>
       <c r="K15" s="3">
         <v>100</v>
       </c>
@@ -1098,7 +1144,7 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
@@ -1109,8 +1155,14 @@
       <c r="R15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1178,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F17" s="3">
         <v>4100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1312,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-20800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-21600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1357,8 +1437,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1370,84 +1450,96 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-23000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,10 +1586,16 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1644,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-23000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-23000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1812,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1868,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1924,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1980,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>20800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-23000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2148,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-23000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2291,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2313,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F41" s="3">
         <v>5000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3400</v>
-      </c>
-      <c r="M41" s="3">
-        <v>800</v>
-      </c>
-      <c r="N41" s="3">
-        <v>400</v>
       </c>
       <c r="O41" s="3">
         <v>800</v>
       </c>
       <c r="P41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>800</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,28 +2421,34 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
@@ -2271,16 +2457,16 @@
         <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
@@ -2291,20 +2477,26 @@
       <c r="R43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>200</v>
+      </c>
+      <c r="T43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
-        <v>100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
@@ -2324,36 +2516,42 @@
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2362,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2391,63 +2589,75 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F46" s="3">
         <v>5500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2456,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
@@ -2489,51 +2699,57 @@
         <v>100</v>
       </c>
       <c r="R47" s="3">
+        <v>100</v>
+      </c>
+      <c r="S47" s="3">
+        <v>100</v>
+      </c>
+      <c r="T47" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1600</v>
       </c>
       <c r="J48" s="3">
         <v>1600</v>
       </c>
       <c r="K48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>500</v>
       </c>
       <c r="Q48" s="3">
         <v>500</v>
@@ -2541,37 +2757,43 @@
       <c r="R48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>500</v>
+      </c>
+      <c r="T48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F49" s="3">
         <v>10700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3700</v>
       </c>
       <c r="J49" s="3">
         <v>3700</v>
       </c>
       <c r="K49" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="L49" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="M49" s="3">
         <v>3100</v>
@@ -2586,13 +2808,19 @@
         <v>3100</v>
       </c>
       <c r="Q49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S49" s="3">
         <v>3200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2869,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2925,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2700,10 +2940,10 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2715,10 +2955,10 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2741,8 +2981,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3037,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F54" s="3">
         <v>19000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>12100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3119,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3141,66 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
       </c>
       <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>700</v>
+      </c>
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2940,38 +3208,38 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>300</v>
+      </c>
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
@@ -2979,33 +3247,39 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
@@ -3014,163 +3288,181 @@
         <v>800</v>
       </c>
       <c r="M59" s="3">
+        <v>800</v>
+      </c>
+      <c r="N59" s="3">
+        <v>800</v>
+      </c>
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E60" s="3">
-        <v>3900</v>
+        <v>2900</v>
       </c>
       <c r="F60" s="3">
         <v>3100</v>
       </c>
       <c r="G60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
-        <v>1000</v>
-      </c>
       <c r="F62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G62" s="3">
         <v>1000</v>
       </c>
       <c r="H62" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="I62" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="J62" s="3">
         <v>1200</v>
       </c>
       <c r="K62" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L62" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M62" s="3">
         <v>1000</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3181,8 +3473,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3529,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3585,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3641,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3723,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3775,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3831,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3887,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3943,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-71400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-68000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-66900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-63200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-60800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-60100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-58600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-53100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-29800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-27400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-25900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-23800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-23300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-20200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4055,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4111,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4167,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F76" s="3">
         <v>13500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-6500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4279,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-23000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,32 +4422,34 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
-        <v>100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
-      </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
@@ -4065,7 +4463,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -4076,8 +4474,14 @@
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4530,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4586,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4642,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4698,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4754,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2300</v>
       </c>
       <c r="G89" s="3">
         <v>-1600</v>
       </c>
       <c r="H89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4836,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-400</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4944,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +5000,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5082,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5134,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5190,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5246,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5302,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3">
         <v>7900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>6700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5414,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3">
         <v>3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2600</v>
-      </c>
-      <c r="M102" s="3">
-        <v>500</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-400</v>
       </c>
       <c r="O102" s="3">
         <v>500</v>
       </c>
       <c r="P102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>500</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>GRIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,167 +760,176 @@
         <v>2900</v>
       </c>
       <c r="E8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
-        <v>2800</v>
-      </c>
       <c r="G9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H9" s="3">
         <v>1900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>900</v>
       </c>
       <c r="N9" s="3">
         <v>900</v>
       </c>
       <c r="O9" s="3">
+        <v>900</v>
+      </c>
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
-        <v>-100</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-500</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-100</v>
       </c>
       <c r="L10" s="3">
         <v>-100</v>
       </c>
       <c r="M10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,64 +1066,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>100</v>
-      </c>
-      <c r="K14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>500</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1114,26 +1137,26 @@
         <v>500</v>
       </c>
       <c r="E15" s="3">
+        <v>500</v>
+      </c>
+      <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
-        <v>100</v>
-      </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
@@ -1150,19 +1173,22 @@
         <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
         <v>4800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
-        <v>4100</v>
-      </c>
       <c r="G17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H17" s="3">
         <v>5000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1347,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1323,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1344,104 +1378,110 @@
         <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-20800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-500</v>
       </c>
       <c r="N20" s="3">
         <v>-500</v>
       </c>
       <c r="O20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-21600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1000</v>
       </c>
       <c r="O21" s="3">
         <v>-1000</v>
       </c>
       <c r="P21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1456,90 +1496,96 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>1300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>500</v>
       </c>
       <c r="N22" s="3">
         <v>500</v>
       </c>
       <c r="O22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
+        <v>400</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1500</v>
       </c>
       <c r="O23" s="3">
         <v>-1500</v>
       </c>
       <c r="P23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,10 +1638,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1500</v>
       </c>
       <c r="O26" s="3">
         <v>-1500</v>
       </c>
       <c r="P26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5600</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-3200</v>
       </c>
       <c r="T26" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1500</v>
       </c>
       <c r="O27" s="3">
         <v>-1500</v>
       </c>
       <c r="P27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5600</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-3200</v>
       </c>
       <c r="T27" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2053,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1995,19 +2065,19 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -2016,90 +2086,96 @@
         <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>20800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>500</v>
       </c>
       <c r="N32" s="3">
         <v>500</v>
       </c>
       <c r="O32" s="3">
+        <v>500</v>
+      </c>
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1500</v>
       </c>
       <c r="O33" s="3">
         <v>-1500</v>
       </c>
       <c r="P33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5600</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-3200</v>
       </c>
       <c r="T33" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1500</v>
       </c>
       <c r="O35" s="3">
         <v>-1500</v>
       </c>
       <c r="P35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5600</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-3200</v>
       </c>
       <c r="T35" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2401,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E41" s="3">
         <v>14800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,31 +2517,34 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -2463,13 +2556,13 @@
         <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
@@ -2483,23 +2576,26 @@
       <c r="T43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
@@ -2522,7 +2618,7 @@
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2531,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
@@ -2539,8 +2635,11 @@
       <c r="T44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2548,13 +2647,13 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2566,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2595,72 +2694,78 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E46" s="3">
         <v>16500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
-      </c>
-      <c r="S46" s="3">
-        <v>400</v>
       </c>
       <c r="T46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2672,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
@@ -2705,10 +2810,13 @@
         <v>100</v>
       </c>
       <c r="T47" s="3">
+        <v>100</v>
+      </c>
+      <c r="U47" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2716,22 +2824,22 @@
         <v>4600</v>
       </c>
       <c r="E48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1600</v>
       </c>
       <c r="K48" s="3">
         <v>1600</v>
@@ -2740,19 +2848,19 @@
         <v>1600</v>
       </c>
       <c r="M48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>500</v>
       </c>
       <c r="R48" s="3">
         <v>500</v>
@@ -2763,31 +2871,34 @@
       <c r="T48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E49" s="3">
         <v>8700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3500</v>
       </c>
       <c r="I49" s="3">
         <v>3500</v>
       </c>
       <c r="J49" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="K49" s="3">
         <v>3700</v>
@@ -2796,7 +2907,7 @@
         <v>3700</v>
       </c>
       <c r="M49" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="N49" s="3">
         <v>3100</v>
@@ -2814,13 +2925,16 @@
         <v>3100</v>
       </c>
       <c r="S49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="T49" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,8 +3048,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2946,7 +3066,7 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -2961,7 +3081,7 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2987,8 +3107,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E54" s="3">
         <v>29900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4300</v>
-      </c>
-      <c r="S54" s="3">
-        <v>4200</v>
       </c>
       <c r="T54" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,8 +3273,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3152,55 +3283,58 @@
         <v>1000</v>
       </c>
       <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
-        <v>2000</v>
-      </c>
       <c r="J57" s="3">
+        <v>900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3214,35 +3348,35 @@
         <v>300</v>
       </c>
       <c r="G58" s="3">
+        <v>300</v>
+      </c>
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2200</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
@@ -3253,36 +3387,39 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
       </c>
       <c r="J59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>800</v>
       </c>
       <c r="L59" s="3">
         <v>800</v>
@@ -3294,151 +3431,160 @@
         <v>800</v>
       </c>
       <c r="O59" s="3">
+        <v>800</v>
+      </c>
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>2000</v>
       </c>
       <c r="S59" s="3">
         <v>2000</v>
       </c>
       <c r="T59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>600</v>
       </c>
       <c r="I61" s="3">
         <v>600</v>
       </c>
       <c r="J61" s="3">
+        <v>600</v>
+      </c>
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3400</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1100</v>
       </c>
       <c r="F62" s="3">
         <v>1100</v>
       </c>
       <c r="G62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H62" s="3">
         <v>1000</v>
@@ -3447,7 +3593,7 @@
         <v>1000</v>
       </c>
       <c r="J62" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K62" s="3">
         <v>1200</v>
@@ -3456,7 +3602,7 @@
         <v>1200</v>
       </c>
       <c r="M62" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N62" s="3">
         <v>1000</v>
@@ -3465,7 +3611,7 @@
         <v>1000</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3479,8 +3625,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>5100</v>
       </c>
       <c r="J66" s="3">
         <v>5100</v>
       </c>
       <c r="K66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L66" s="3">
         <v>4600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-75100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-73300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-71400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-68000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-66900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-60800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-60100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-53100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-27400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-25900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-22200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-20200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E76" s="3">
         <v>22600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1500</v>
       </c>
       <c r="O81" s="3">
         <v>-1500</v>
       </c>
       <c r="P81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5600</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-3200</v>
       </c>
       <c r="T81" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,35 +4622,36 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
-        <v>100</v>
-      </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
@@ -4469,19 +4668,22 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,53 +5058,54 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -4892,10 +5113,13 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,53 +5233,56 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-600</v>
       </c>
       <c r="N94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5060,10 +5290,13 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5551,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5669,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="F102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>GRIL</t>
   </si>
@@ -5070,8 +5070,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
